--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
   <si>
     <t>S No</t>
   </si>
@@ -721,6 +721,21 @@
   </si>
   <si>
     <t>Alica pure(8)</t>
+  </si>
+  <si>
+    <t>30-Sep-2020 10:13</t>
+  </si>
+  <si>
+    <t>XX30090</t>
+  </si>
+  <si>
+    <t>Alica pure(2)</t>
+  </si>
+  <si>
+    <t>30-Sep-2020 10:17</t>
+  </si>
+  <si>
+    <t>XX30091</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69.95" customHeight="1">
@@ -2706,6 +2721,52 @@
       </c>
       <c r="G22" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="190">
   <si>
     <t>S No</t>
   </si>
@@ -737,12 +737,23 @@
   <si>
     <t>XX30091</t>
   </si>
+  <si>
+    <t>Item_img</t>
+  </si>
+  <si>
+    <t>Item_barcode</t>
+  </si>
+  <si>
+    <t>8902251530058</t>
+  </si>
+  <si>
+    <t>4902778913956</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -793,11 +804,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +821,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -830,7 +843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -868,7 +881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -944,7 +957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -961,7 +974,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -976,13 +989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -999,7 +1012,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1014,13 +1027,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1325,22 +1338,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.6875" collapsed="true"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1353,8 +1367,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1368,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1382,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="70.0" customHeight="true">
+    <row r="5" spans="1:6" ht="69.95" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1407,10 +1427,10 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="69.95" customHeight="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69.95" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1420,11 +1440,14 @@
       <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" t="n">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69.95" customHeight="1">
+      <c r="D6">
+        <v>147</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="69.95" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1435,10 +1458,10 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1452,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="69.95" customHeight="1">
+    <row r="10" spans="1:6" ht="69.95" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1479,8 +1502,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1494,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1508,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1536,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1550,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1980,8 +2006,8 @@
       <c r="C46">
         <v>595</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0</v>
+      <c r="D46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2203,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2212,9 +2238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2378,7 +2404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2401,7 +2427,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2424,7 +2450,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -2447,7 +2473,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -2493,7 +2519,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2539,7 +2565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -2562,7 +2588,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -2585,7 +2611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -2608,7 +2634,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -2631,7 +2657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -2654,7 +2680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2677,7 +2703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -2700,7 +2726,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -2723,7 +2749,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -2782,7 +2808,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2790,10 +2816,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2880,7 +2906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -2894,7 +2920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>164</v>
       </c>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="192">
   <si>
     <t>S No</t>
   </si>
@@ -744,16 +744,23 @@
     <t>Item_barcode</t>
   </si>
   <si>
-    <t>8902251530058</t>
-  </si>
-  <si>
-    <t>4902778913956</t>
+    <t>30-Sep-2020 16:27</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>XX30092</t>
+  </si>
+  <si>
+    <t>Aqua Fresh(1),Aqua Glory(1),Alica pure(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1342,16 +1349,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -1426,8 +1433,8 @@
       <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>1500</v>
+      <c r="D5" t="n">
+        <v>1499.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69.95" customHeight="1">
@@ -1440,11 +1447,8 @@
       <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6">
-        <v>147</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>188</v>
+      <c r="D6" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="69.95" customHeight="1">
@@ -1457,8 +1461,8 @@
       <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7">
-        <v>2000</v>
+      <c r="D7" t="n">
+        <v>1999.0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1501,9 +1505,6 @@
       </c>
       <c r="D10">
         <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2238,9 +2239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2793,6 +2794,29 @@
       </c>
       <c r="G24" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2816,10 +2840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
   <si>
     <t>S No</t>
   </si>
@@ -755,12 +755,20 @@
   <si>
     <t>Aqua Fresh(1),Aqua Glory(1),Alica pure(1)</t>
   </si>
+  <si>
+    <t>30-Sep-2020 18:13</t>
+  </si>
+  <si>
+    <t>XX30093</t>
+  </si>
+  <si>
+    <t>8902251530058</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1349,16 +1357,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -1433,8 +1441,8 @@
       <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
-        <v>1499.0</v>
+      <c r="D5">
+        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69.95" customHeight="1">
@@ -1447,8 +1455,11 @@
       <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" t="n">
-        <v>146.0</v>
+      <c r="D6">
+        <v>145</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="69.95" customHeight="1">
@@ -1461,8 +1472,8 @@
       <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7" t="n">
-        <v>1999.0</v>
+      <c r="D7">
+        <v>1999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2230,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2239,9 +2250,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2796,7 +2807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -2817,6 +2828,29 @@
       </c>
       <c r="G25" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2874,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="196">
   <si>
     <t>S No</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>8902251530058</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1444,6 +1447,9 @@
       <c r="D5">
         <v>1499</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="69.95" customHeight="1">
       <c r="A6">

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
   <si>
     <t>S No</t>
   </si>
@@ -766,6 +766,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>02-Oct-2020 11:35</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>XX02104</t>
+  </si>
+  <si>
+    <t>yyy</t>
   </si>
 </sst>
 </file>
@@ -1356,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,7 +1384,7 @@
     <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1403,10 +1415,10 @@
         <v>4950</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1417,10 +1429,10 @@
         <v>7650</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1431,10 +1443,10 @@
         <v>8850</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.95" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.95" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69.95" customHeight="1">
+    <row r="6" spans="1:7" ht="69.95" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1462,13 +1474,16 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="69.95" customHeight="1">
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="69.95" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1496,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1507,10 +1522,10 @@
         <v>27000</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="69.95" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69.95" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1521,10 +1536,10 @@
         <v>40500</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1552,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1594,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2247,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2856,6 +2871,29 @@
         <v>193</v>
       </c>
       <c r="G26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="218">
   <si>
     <t>S No</t>
   </si>
@@ -779,11 +779,66 @@
   <si>
     <t>yyy</t>
   </si>
+  <si>
+    <t>03-Oct-2020 12:09</t>
+  </si>
+  <si>
+    <t>XX03105</t>
+  </si>
+  <si>
+    <t>Aqua Fresh(1)</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 12:27</t>
+  </si>
+  <si>
+    <t>XX03106</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 12:29</t>
+  </si>
+  <si>
+    <t>XX03107</t>
+  </si>
+  <si>
+    <t>XX03108</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 12:35</t>
+  </si>
+  <si>
+    <t>XX03109</t>
+  </si>
+  <si>
+    <t>Aqua Glory(1)</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 12:36</t>
+  </si>
+  <si>
+    <t>XX031010</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 12:38</t>
+  </si>
+  <si>
+    <t>XX031011</t>
+  </si>
+  <si>
+    <t>03-Oct-2020 13:18</t>
+  </si>
+  <si>
+    <t>XX031012</t>
+  </si>
+  <si>
+    <t>Aqua Fresh(8)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1377,11 +1432,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -1456,8 +1511,8 @@
       <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>1499</v>
+      <c r="D5" t="n">
+        <v>1488.0</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>195</v>
@@ -1473,8 +1528,8 @@
       <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6">
-        <v>144</v>
+      <c r="D6" t="n">
+        <v>139.0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>194</v>
@@ -1493,8 +1548,8 @@
       <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7">
-        <v>1999</v>
+      <c r="D7" t="n">
+        <v>1996.0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2271,9 +2326,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2895,6 +2950,190 @@
       </c>
       <c r="G27" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2918,10 +3157,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="225">
   <si>
     <t>S No</t>
   </si>
@@ -832,6 +832,27 @@
   </si>
   <si>
     <t>Aqua Fresh(8)</t>
+  </si>
+  <si>
+    <t>Irfaan</t>
+  </si>
+  <si>
+    <t>22222222222</t>
+  </si>
+  <si>
+    <t>Remote2222</t>
+  </si>
+  <si>
+    <t>765765765</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Apple iPhone</t>
+  </si>
+  <si>
+    <t>321654987</t>
   </si>
 </sst>
 </file>
@@ -906,7 +927,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -928,7 +949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -966,7 +987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1004,7 +1025,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1042,7 +1063,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1080,7 +1101,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1118,7 +1139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1127,6 +1148,82 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3638550" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3648075" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3648075" cy="841534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1423,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,6 +1555,9 @@
       <c r="F1" s="5" t="s">
         <v>187</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
@@ -1511,8 +1611,8 @@
       <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" t="n">
-        <v>1488.0</v>
+      <c r="D5">
+        <v>1488</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>195</v>
@@ -1529,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>139.0</v>
+        <v>250.0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>194</v>
@@ -1548,8 +1648,8 @@
       <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7" t="n">
-        <v>1996.0</v>
+      <c r="D7">
+        <v>1996</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1576,8 +1676,8 @@
       <c r="C9" s="3">
         <v>27000</v>
       </c>
-      <c r="D9">
-        <v>100</v>
+      <c r="D9" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="69.95" customHeight="1">
@@ -2126,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2140,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2154,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2168,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2182,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2196,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2210,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2224,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2238,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2252,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2266,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2280,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2294,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2306,6 +2406,60 @@
       </c>
       <c r="D61">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="69.95" customHeight="1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="F62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" ht="70.0" customHeight="true">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2952,7 +3106,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -2975,7 +3129,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -2998,7 +3152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -3021,7 +3175,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -3044,7 +3198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -3067,7 +3221,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -3090,7 +3244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -3113,7 +3267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>215</v>
       </c>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -1629,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>194</v>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
   <si>
     <t>S No</t>
   </si>
@@ -853,6 +853,21 @@
   </si>
   <si>
     <t>321654987</t>
+  </si>
+  <si>
+    <t>07-Oct-2020 12:17</t>
+  </si>
+  <si>
+    <t>XX071013</t>
+  </si>
+  <si>
+    <t>Alica pure(3)</t>
+  </si>
+  <si>
+    <t>Voltas AAc</t>
+  </si>
+  <si>
+    <t>EA705871119IN</t>
   </si>
 </sst>
 </file>
@@ -1232,6 +1247,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3648075" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1629,7 +1682,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>300.0</v>
+        <v>497.0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>194</v>
@@ -2460,6 +2513,26 @@
       </c>
       <c r="G64" t="n">
         <v>10.0</v>
+      </c>
+    </row>
+    <row r="65" ht="70.0" customHeight="true">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -3288,6 +3361,29 @@
       </c>
       <c r="G35" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
   <si>
     <t>S No</t>
   </si>
@@ -526,6 +526,18 @@
   </si>
   <si>
     <t>Stock Name One(1)</t>
+  </si>
+  <si>
+    <t>Stock Name two</t>
+  </si>
+  <si>
+    <t>321654987632</t>
+  </si>
+  <si>
+    <t>Stock Name Three</t>
+  </si>
+  <si>
+    <t>12346</t>
   </si>
 </sst>
 </file>
@@ -590,6 +602,125 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3638550" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3638550" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3638550" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +1051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="69.95" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,8 +1061,8 @@
       <c r="C2" s="3">
         <v>155</v>
       </c>
-      <c r="D2" t="n">
-        <v>199.0</v>
+      <c r="D2">
+        <v>199</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>164</v>
@@ -941,17 +1072,61 @@
       </c>
       <c r="H2" s="3">
         <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="69.95" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="70.0" customHeight="true">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1816,7 +1991,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>166</v>
       </c>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
   <si>
     <t>S No</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>12346</t>
+  </si>
+  <si>
+    <t>15-Oct-2020 13:20</t>
+  </si>
+  <si>
+    <t>XX151016</t>
+  </si>
+  <si>
+    <t>Stock Name two(1)</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1093,8 @@
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3">
-        <v>500</v>
+      <c r="D3" t="n">
+        <v>499.0</v>
       </c>
       <c r="F3" t="s">
         <v>171</v>
@@ -2012,6 +2021,29 @@
       </c>
       <c r="G38" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
   <si>
     <t>S No</t>
   </si>
@@ -547,6 +547,45 @@
   </si>
   <si>
     <t>Stock Name two(1)</t>
+  </si>
+  <si>
+    <t>15-Oct-2020 15:01</t>
+  </si>
+  <si>
+    <t>XX151017</t>
+  </si>
+  <si>
+    <t>500 ML Coc Oil(1)</t>
+  </si>
+  <si>
+    <t>500ml Coc Oil</t>
+  </si>
+  <si>
+    <t>8902251530058</t>
+  </si>
+  <si>
+    <t>15-Oct-2020 15:08</t>
+  </si>
+  <si>
+    <t>XX151018</t>
+  </si>
+  <si>
+    <t>500ml Coc Oil(4)</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>80045138615952</t>
+  </si>
+  <si>
+    <t>15-Oct-2020 15:10</t>
+  </si>
+  <si>
+    <t>XX151019</t>
+  </si>
+  <si>
+    <t>CP(3),500ml Coc Oil(1)</t>
   </si>
 </sst>
 </file>
@@ -630,7 +669,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -668,7 +707,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -691,7 +730,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -706,13 +745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -721,6 +760,82 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3638550" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3648075" cy="841534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3648075" cy="841534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1029,7 +1144,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.6875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
@@ -1093,8 +1208,8 @@
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3" t="n">
-        <v>499.0</v>
+      <c r="D3">
+        <v>499</v>
       </c>
       <c r="F3" t="s">
         <v>171</v>
@@ -1103,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="70.0" customHeight="true">
+    <row r="4" spans="1:8" ht="69.95" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1124,6 +1239,46 @@
       </c>
       <c r="H4">
         <v>850</v>
+      </c>
+    </row>
+    <row r="5" ht="70.0" customHeight="true">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" ht="70.0" customHeight="true">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2023,7 +2178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -2044,6 +2199,75 @@
       </c>
       <c r="G39" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -1185,8 +1185,8 @@
       <c r="C2" s="3">
         <v>155</v>
       </c>
-      <c r="D2">
-        <v>199</v>
+      <c r="D2" t="n">
+        <v>219.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>164</v>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -1186,7 +1186,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>219.0</v>
+        <v>218.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>164</v>
@@ -1228,8 +1228,8 @@
       <c r="C4">
         <v>1000</v>
       </c>
-      <c r="D4">
-        <v>25</v>
+      <c r="D4" t="n">
+        <v>24.0</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>173</v>
@@ -1252,7 +1252,7 @@
         <v>50.0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="F5" t="s">
         <v>181</v>
@@ -1272,7 +1272,7 @@
         <v>800.0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="F6" t="s">
         <v>186</v>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="440">
   <si>
     <t>S No</t>
   </si>
@@ -199,28 +199,7 @@
     <t>CIMA PLUS BRON CEILING FAN(1)</t>
   </si>
   <si>
-    <t>12-Nov-2019 17:37</t>
-  </si>
-  <si>
-    <t>3762.0</t>
-  </si>
-  <si>
-    <t>3612.0</t>
-  </si>
-  <si>
-    <t>CO12112</t>
-  </si>
-  <si>
-    <t>AMARON AUTOMOBILE CAR BATTERY BL400LMF(1)</t>
-  </si>
-  <si>
     <t>29-Nov-2019 17:11</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>CO29113</t>
   </si>
   <si>
     <t>Alica pure(1)</t>
@@ -1364,6 +1343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2026,12 +2006,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -2042,22 +2022,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69.95" customHeight="1">
@@ -2065,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3">
         <v>155</v>
@@ -2074,7 +2054,7 @@
         <v>204</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2088,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -2097,7 +2077,7 @@
         <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2108,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2117,7 +2097,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2131,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -2140,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2151,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -2160,7 +2140,7 @@
         <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2171,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -2180,7 +2160,7 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2191,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -2200,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2211,7 +2191,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -2220,7 +2200,7 @@
         <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2231,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C10">
         <v>175</v>
@@ -2240,7 +2220,7 @@
         <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -2251,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -2260,7 +2240,7 @@
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2275,18 +2255,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2325,8 +2305,8 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -2368,11 +2348,11 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -2394,8 +2374,8 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2432,22 +2412,22 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
         <v>62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
-        <v>64</v>
+      <c r="G7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2470,24 +2450,24 @@
         <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
@@ -2510,36 +2490,36 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>76</v>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2547,45 +2527,45 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2593,27 +2573,27 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -2622,90 +2602,90 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -2714,21 +2694,21 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2737,21 +2717,21 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -2760,16 +2740,16 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
       </c>
       <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2777,22 +2757,22 @@
         <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2800,96 +2780,96 @@
         <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
+        <v>121</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>128</v>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -2898,44 +2878,44 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -2944,21 +2924,21 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -2967,21 +2947,21 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -2990,59 +2970,59 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
         <v>146</v>
@@ -3050,145 +3030,145 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>150</v>
-      </c>
-      <c r="G34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -3197,53 +3177,53 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
         <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
         <v>187</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>37</v>
@@ -3257,131 +3237,131 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
         <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" t="s">
-        <v>37</v>
+        <v>197</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
         <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>205</v>
       </c>
       <c r="G46" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
         <v>207</v>
       </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
         <v>208</v>
       </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>209</v>
-      </c>
-      <c r="G47" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
         <v>211</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
       </c>
       <c r="E48" t="s">
         <v>37</v>
@@ -3390,7 +3370,7 @@
         <v>212</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3398,165 +3378,165 @@
         <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
         <v>214</v>
       </c>
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s">
-        <v>215</v>
-      </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E50" t="s">
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" t="s">
         <v>228</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>229</v>
-      </c>
-      <c r="G55" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -3565,13 +3545,13 @@
         <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" t="s">
         <v>169</v>
@@ -3579,7 +3559,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -3588,21 +3568,21 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -3611,21 +3591,21 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
         <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3634,30 +3614,30 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
         <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
         <v>239</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" t="s">
-        <v>218</v>
       </c>
       <c r="E60" t="s">
         <v>37</v>
@@ -3666,7 +3646,7 @@
         <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3674,114 +3654,114 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
         <v>242</v>
       </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>243</v>
-      </c>
-      <c r="G61" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
         <v>245</v>
       </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>247</v>
-      </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
         <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3789,174 +3769,174 @@
         <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="s">
         <v>255</v>
       </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="s">
-        <v>256</v>
-      </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E67" t="s">
         <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
         <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G69" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" t="s">
         <v>265</v>
-      </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" t="s">
-        <v>191</v>
-      </c>
-      <c r="E70" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
         <v>267</v>
       </c>
-      <c r="B71" t="s">
-        <v>103</v>
-      </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="E71" t="s">
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G71" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
         <v>37</v>
@@ -3965,99 +3945,99 @@
         <v>277</v>
       </c>
       <c r="G73" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" t="s">
-        <v>281</v>
-      </c>
       <c r="G74" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>284</v>
+      </c>
+      <c r="G76" t="s">
         <v>285</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E76" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" t="s">
-        <v>286</v>
-      </c>
-      <c r="G76" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
         <v>287</v>
       </c>
-      <c r="B77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>288</v>
-      </c>
-      <c r="G77" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4065,50 +4045,50 @@
         <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
         <v>290</v>
       </c>
-      <c r="E78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>291</v>
-      </c>
       <c r="G78" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="E79" t="s">
         <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G79" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -4117,44 +4097,44 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
         <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" t="s">
         <v>298</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" t="s">
-        <v>242</v>
-      </c>
-      <c r="E81" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -4163,90 +4143,90 @@
         <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="E82" t="s">
         <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83" t="s">
-        <v>37</v>
+        <v>309</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G83" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>309</v>
-      </c>
-      <c r="E84" t="s">
-        <v>37</v>
+        <v>314</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
         <v>31</v>
@@ -4255,108 +4235,108 @@
         <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
-      </c>
-      <c r="E86" t="s">
-        <v>37</v>
+        <v>296</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
       </c>
       <c r="F86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G88" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
         <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G89" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4370,7 +4350,7 @@
         <v>343</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
         <v>37</v>
@@ -4379,7 +4359,7 @@
         <v>344</v>
       </c>
       <c r="G91" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4387,68 +4367,68 @@
         <v>345</v>
       </c>
       <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
         <v>346</v>
       </c>
-      <c r="C92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" t="s">
-        <v>347</v>
-      </c>
       <c r="G92" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
         <v>348</v>
       </c>
-      <c r="B93" t="s">
+      <c r="G93" t="s">
         <v>349</v>
-      </c>
-      <c r="C93" t="s">
-        <v>350</v>
-      </c>
-      <c r="D93" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" t="s">
-        <v>37</v>
-      </c>
-      <c r="F93" t="s">
-        <v>351</v>
-      </c>
-      <c r="G93" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>350</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="s">
         <v>352</v>
       </c>
-      <c r="B94" t="s">
-        <v>349</v>
-      </c>
-      <c r="C94" t="s">
-        <v>350</v>
-      </c>
-      <c r="D94" t="s">
-        <v>316</v>
-      </c>
-      <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>353</v>
-      </c>
-      <c r="G94" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4462,361 +4442,361 @@
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="E95" t="s">
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G95" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="D96" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E96" t="s">
         <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E97" t="s">
         <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G97" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D98" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="F98" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G98" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="E99" t="s">
         <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G99" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
+        <v>309</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
         <v>380</v>
       </c>
-      <c r="E100" t="s">
-        <v>381</v>
-      </c>
-      <c r="F100" t="s">
-        <v>382</v>
-      </c>
       <c r="G100" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>382</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E101" t="s">
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G101" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
         <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G102" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B103" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C103" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="E103" t="s">
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G103" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="E104" t="s">
         <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G104" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E105" t="s">
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G105" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B106" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="E106" t="s">
         <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G106" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
         <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" t="s">
+        <v>364</v>
+      </c>
+      <c r="D108" t="s">
+        <v>184</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
         <v>398</v>
       </c>
-      <c r="B108" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" t="s">
-        <v>371</v>
-      </c>
-      <c r="D108" t="s">
-        <v>242</v>
-      </c>
-      <c r="E108" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" t="s">
-        <v>400</v>
-      </c>
       <c r="G108" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
         <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G109" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C110" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E110" t="s">
         <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4824,36 +4804,36 @@
         <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="E111" t="s">
         <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G111" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B112" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" t="s">
         <v>408</v>
       </c>
-      <c r="C112" t="s">
-        <v>371</v>
-      </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E112" t="s">
         <v>37</v>
@@ -4862,7 +4842,7 @@
         <v>409</v>
       </c>
       <c r="G112" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4873,10 +4853,10 @@
         <v>411</v>
       </c>
       <c r="C113" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
         <v>37</v>
@@ -4885,7 +4865,7 @@
         <v>412</v>
       </c>
       <c r="G113" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4896,33 +4876,33 @@
         <v>414</v>
       </c>
       <c r="C114" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
         <v>415</v>
       </c>
-      <c r="D114" t="s">
-        <v>218</v>
-      </c>
-      <c r="E114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" t="s">
-        <v>416</v>
-      </c>
       <c r="G114" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" t="s">
         <v>417</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>418</v>
       </c>
-      <c r="C115" t="s">
-        <v>371</v>
-      </c>
       <c r="D115" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E115" t="s">
         <v>37</v>
@@ -4931,7 +4911,7 @@
         <v>419</v>
       </c>
       <c r="G115" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4942,10 +4922,10 @@
         <v>421</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="E116" t="s">
         <v>37</v>
@@ -4954,127 +4934,127 @@
         <v>422</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>361</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>424</v>
+      </c>
+      <c r="G117" t="s">
         <v>423</v>
-      </c>
-      <c r="B117" t="s">
-        <v>424</v>
-      </c>
-      <c r="C117" t="s">
-        <v>425</v>
-      </c>
-      <c r="D117" t="s">
-        <v>246</v>
-      </c>
-      <c r="E117" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" t="s">
-        <v>426</v>
-      </c>
-      <c r="G117" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
+        <v>425</v>
+      </c>
+      <c r="B118" t="s">
+        <v>426</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
         <v>427</v>
       </c>
-      <c r="B118" t="s">
-        <v>428</v>
-      </c>
-      <c r="C118" t="s">
-        <v>371</v>
-      </c>
-      <c r="D118" t="s">
-        <v>368</v>
-      </c>
-      <c r="E118" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" t="s">
-        <v>429</v>
-      </c>
       <c r="G118" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
-        <v>368</v>
+        <v>239</v>
       </c>
       <c r="E119" t="s">
         <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G119" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s">
-        <v>433</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
-      </c>
-      <c r="E120" t="s">
-        <v>37</v>
+        <v>193</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0</v>
       </c>
       <c r="F120" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G120" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F121" t="s">
         <v>432</v>
       </c>
-      <c r="B121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" t="s">
-        <v>246</v>
-      </c>
-      <c r="E121" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" t="s">
-        <v>435</v>
-      </c>
       <c r="G121" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
@@ -5083,85 +5063,39 @@
         <v>32</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
-      </c>
-      <c r="E122" t="s">
-        <v>37</v>
+        <v>193</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
       </c>
       <c r="F122" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G122" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
         <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G123" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" t="s">
-        <v>31</v>
-      </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" t="s">
-        <v>200</v>
-      </c>
-      <c r="E124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" t="s">
-        <v>441</v>
-      </c>
-      <c r="G124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>442</v>
-      </c>
-      <c r="B125" t="s">
-        <v>103</v>
-      </c>
-      <c r="C125" t="s">
-        <v>104</v>
-      </c>
-      <c r="D125" t="s">
-        <v>218</v>
-      </c>
-      <c r="E125" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" t="s">
-        <v>443</v>
-      </c>
-      <c r="G125" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5185,10 +5119,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5213,7 +5147,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -5277,254 +5211,254 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5536,29 +5470,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="161">
   <si>
     <t>S No</t>
   </si>
@@ -362,6 +362,144 @@
   </si>
   <si>
     <t>Stock Name Three(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:09</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>XX021284</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>XX021285</t>
+  </si>
+  <si>
+    <t>cutting(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:11</t>
+  </si>
+  <si>
+    <t>Sak 2(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:22</t>
+  </si>
+  <si>
+    <t>XX021286</t>
+  </si>
+  <si>
+    <t>sakthi masala(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:25</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:26</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>sakthi masala(1),Bill Clearance 02Dec2020(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:32</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>XX021287</t>
+  </si>
+  <si>
+    <t>CP(2)</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>CP(2),Bill Clearance 02Dec2020(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:34</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>XX021288</t>
+  </si>
+  <si>
+    <t>CP(3)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>XX021289</t>
+  </si>
+  <si>
+    <t>Sak 2(2)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:35</t>
+  </si>
+  <si>
+    <t>XX021290</t>
+  </si>
+  <si>
+    <t>Sak 2(5)</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>XX021291</t>
+  </si>
+  <si>
+    <t>CP(1)</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:39</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>Single Motta (4)</t>
+  </si>
+  <si>
+    <t>XX021292</t>
+  </si>
+  <si>
+    <t>02-Dec-2020 14:40</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>XX021293</t>
+  </si>
+  <si>
+    <t>Stock Name One(1)</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Stock Name One(1),Bill Clearance 02Dec2020(1)</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1213,8 @@
       <c r="C2" s="3">
         <v>155</v>
       </c>
-      <c r="D2">
-        <v>202</v>
+      <c r="D2" t="n">
+        <v>201.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -1119,7 +1257,7 @@
         <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>52</v>
@@ -1161,8 +1299,8 @@
       <c r="C6">
         <v>800</v>
       </c>
-      <c r="D6">
-        <v>103</v>
+      <c r="D6" t="n">
+        <v>98.0</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1201,8 +1339,8 @@
       <c r="C8">
         <v>35</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="n">
+        <v>0.0</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1221,8 +1359,8 @@
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>157</v>
+      <c r="D9" t="n">
+        <v>148.0</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1262,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1354,7 +1492,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>102</v>
@@ -1423,13 +1561,381 @@
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="358">
   <si>
     <t>S No</t>
   </si>
@@ -421,9 +421,6 @@
     <t>02-Oct-2020 11:35</t>
   </si>
   <si>
-    <t>150.0</t>
-  </si>
-  <si>
     <t>XX02104</t>
   </si>
   <si>
@@ -931,9 +928,6 @@
     <t>175</t>
   </si>
   <si>
-    <t>125.0</t>
-  </si>
-  <si>
     <t>XX271060</t>
   </si>
   <si>
@@ -967,9 +961,6 @@
     <t>07-Nov-2020 16:52</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
     <t>XX071163</t>
   </si>
   <si>
@@ -1088,6 +1079,18 @@
   </si>
   <si>
     <t>08-Dec-2020 15:48</t>
+  </si>
+  <si>
+    <t>NewStock_Img</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>Boost Half Kg</t>
+  </si>
+  <si>
+    <t>jhhfjyf</t>
   </si>
 </sst>
 </file>
@@ -1194,28 +1197,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200278</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180498</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1223,7 +1226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7277100" cy="1637824"/>
+          <a:ext cx="3638550" cy="841534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,14 +1239,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200278</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180498</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>841533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1261,7 +1264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7277100" cy="1637824"/>
+          <a:ext cx="3638550" cy="841534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1583,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1595,10 +1598,10 @@
         <v>126</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69.95" customHeight="1">
@@ -1606,16 +1609,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3">
         <v>155</v>
       </c>
-      <c r="D2" t="n">
-        <v>199.0</v>
+      <c r="D2">
+        <v>199</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -1624,24 +1627,64 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="70.0" customHeight="true">
+    <row r="3" spans="1:8" ht="69.95" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3" t="n">
-        <v>451.0</v>
+      <c r="D3">
+        <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="70.0" customHeight="true">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1750,7 +1793,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1773,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1865,7 +1908,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
@@ -1957,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1980,7 +2023,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -2026,7 +2069,7 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2210,7 +2253,7 @@
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2233,7 +2276,7 @@
         <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
@@ -2279,10 +2322,10 @@
         <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
         <v>68</v>
@@ -2290,7 +2333,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -2305,15 +2348,15 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
         <v>137</v>
-      </c>
-      <c r="G28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -2325,10 +2368,10 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
         <v>68</v>
@@ -2336,7 +2379,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -2348,10 +2391,10 @@
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
         <v>68</v>
@@ -2359,7 +2402,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -2371,10 +2414,10 @@
         <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
         <v>68</v>
@@ -2382,7 +2425,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -2394,18 +2437,18 @@
         <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
         <v>145</v>
-      </c>
-      <c r="G32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -2417,18 +2460,18 @@
         <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>103</v>
@@ -2443,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
         <v>68</v>
@@ -2451,7 +2494,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -2463,18 +2506,18 @@
         <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
         <v>152</v>
-      </c>
-      <c r="G35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
@@ -2489,15 +2532,15 @@
         <v>37</v>
       </c>
       <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" t="s">
         <v>156</v>
-      </c>
-      <c r="G36" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -2512,15 +2555,15 @@
         <v>128</v>
       </c>
       <c r="F37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s">
         <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -2529,21 +2572,21 @@
         <v>53</v>
       </c>
       <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" t="s">
         <v>167</v>
       </c>
-      <c r="E38" t="s">
-        <v>354</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>168</v>
-      </c>
-      <c r="G38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -2555,18 +2598,18 @@
         <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
         <v>173</v>
-      </c>
-      <c r="G39" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -2581,15 +2624,15 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
         <v>176</v>
-      </c>
-      <c r="G40" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -2601,18 +2644,18 @@
         <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
         <v>179</v>
-      </c>
-      <c r="G41" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -2627,15 +2670,15 @@
         <v>37</v>
       </c>
       <c r="F42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" t="s">
         <v>182</v>
-      </c>
-      <c r="G42" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2644,21 +2687,21 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>185</v>
       </c>
-      <c r="E43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" t="s">
-        <v>186</v>
-      </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -2667,21 +2710,21 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>189</v>
-      </c>
-      <c r="G44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>103</v>
@@ -2690,21 +2733,21 @@
         <v>104</v>
       </c>
       <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
         <v>192</v>
       </c>
-      <c r="E45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>193</v>
-      </c>
-      <c r="G45" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
@@ -2713,21 +2756,21 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>351</v>
+      </c>
+      <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="E46" t="s">
-        <v>354</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>197</v>
-      </c>
-      <c r="G46" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
@@ -2736,21 +2779,21 @@
         <v>96</v>
       </c>
       <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
         <v>200</v>
       </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>201</v>
-      </c>
-      <c r="G47" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -2759,21 +2802,21 @@
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -2782,21 +2825,21 @@
         <v>96</v>
       </c>
       <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
         <v>206</v>
       </c>
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>207</v>
-      </c>
-      <c r="G49" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -2805,21 +2848,21 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" t="s">
         <v>210</v>
       </c>
-      <c r="E50" t="s">
-        <v>354</v>
-      </c>
-      <c r="F50" t="s">
-        <v>211</v>
-      </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
         <v>95</v>
@@ -2828,21 +2871,21 @@
         <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -2851,21 +2894,21 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -2874,21 +2917,21 @@
         <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -2897,21 +2940,21 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
@@ -2920,21 +2963,21 @@
         <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -2943,21 +2986,21 @@
         <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -2966,21 +3009,21 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
         <v>225</v>
       </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>226</v>
-      </c>
-      <c r="G57" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -2989,21 +3032,21 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3012,21 +3055,21 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
         <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
@@ -3035,21 +3078,21 @@
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3058,21 +3101,21 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
         <v>234</v>
       </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>235</v>
-      </c>
-      <c r="G61" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -3081,21 +3124,21 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
         <v>238</v>
       </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>239</v>
-      </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
         <v>95</v>
@@ -3104,21 +3147,21 @@
         <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
         <v>37</v>
       </c>
       <c r="F63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" t="s">
         <v>241</v>
-      </c>
-      <c r="G63" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>95</v>
@@ -3127,21 +3170,21 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>103</v>
@@ -3150,21 +3193,21 @@
         <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -3173,21 +3216,21 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
         <v>247</v>
       </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>248</v>
-      </c>
-      <c r="G66" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
@@ -3196,21 +3239,21 @@
         <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
         <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
@@ -3219,21 +3262,21 @@
         <v>32</v>
       </c>
       <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" t="s">
         <v>253</v>
       </c>
-      <c r="E68" t="s">
-        <v>354</v>
-      </c>
-      <c r="F68" t="s">
-        <v>254</v>
-      </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
         <v>103</v>
@@ -3242,21 +3285,21 @@
         <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
         <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
         <v>103</v>
@@ -3265,21 +3308,21 @@
         <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
         <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
         <v>103</v>
@@ -3288,21 +3331,21 @@
         <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -3311,44 +3354,44 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
         <v>262</v>
       </c>
-      <c r="E72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
-      </c>
-      <c r="G72" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
         <v>265</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>266</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>267</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
         <v>268</v>
       </c>
-      <c r="E73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>269</v>
-      </c>
-      <c r="G73" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
@@ -3357,21 +3400,21 @@
         <v>96</v>
       </c>
       <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
         <v>272</v>
       </c>
-      <c r="E74" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>273</v>
-      </c>
-      <c r="G74" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
         <v>52</v>
@@ -3380,21 +3423,21 @@
         <v>53</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
         <v>103</v>
@@ -3403,21 +3446,21 @@
         <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -3426,21 +3469,21 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
         <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
@@ -3449,21 +3492,21 @@
         <v>41</v>
       </c>
       <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>351</v>
+      </c>
+      <c r="F78" t="s">
         <v>282</v>
       </c>
-      <c r="E78" t="s">
-        <v>354</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>283</v>
-      </c>
-      <c r="G78" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
@@ -3472,21 +3515,21 @@
         <v>41</v>
       </c>
       <c r="D79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" t="s">
+        <v>351</v>
+      </c>
+      <c r="F79" t="s">
         <v>285</v>
       </c>
-      <c r="E79" t="s">
-        <v>354</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>286</v>
-      </c>
-      <c r="G79" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -3495,21 +3538,21 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
         <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
@@ -3518,21 +3561,21 @@
         <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E81" t="s">
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -3541,21 +3584,21 @@
         <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
         <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B83" t="s">
         <v>40</v>
@@ -3564,21 +3607,21 @@
         <v>41</v>
       </c>
       <c r="D83" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" t="s">
         <v>295</v>
       </c>
-      <c r="E83" t="s">
-        <v>354</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>296</v>
-      </c>
-      <c r="G83" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -3587,21 +3630,21 @@
         <v>49</v>
       </c>
       <c r="D84" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
         <v>299</v>
       </c>
-      <c r="E84" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>300</v>
-      </c>
-      <c r="G84" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
@@ -3610,21 +3653,21 @@
         <v>32</v>
       </c>
       <c r="D85" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" t="s">
+        <v>351</v>
+      </c>
+      <c r="F85" t="s">
         <v>303</v>
       </c>
-      <c r="E85" t="s">
-        <v>354</v>
-      </c>
-      <c r="F85" t="s">
-        <v>305</v>
-      </c>
       <c r="G85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
         <v>31</v>
@@ -3633,21 +3676,21 @@
         <v>32</v>
       </c>
       <c r="D86" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" t="s">
+        <v>351</v>
+      </c>
+      <c r="F86" t="s">
+        <v>307</v>
+      </c>
+      <c r="G86" t="s">
         <v>308</v>
-      </c>
-      <c r="E86" t="s">
-        <v>354</v>
-      </c>
-      <c r="F86" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -3656,21 +3699,21 @@
         <v>49</v>
       </c>
       <c r="D87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s">
+        <v>311</v>
+      </c>
+      <c r="G87" t="s">
         <v>312</v>
-      </c>
-      <c r="E87" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" t="s">
-        <v>313</v>
-      </c>
-      <c r="G87" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -3679,21 +3722,21 @@
         <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
         <v>40</v>
@@ -3702,21 +3745,21 @@
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G89" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
         <v>40</v>
@@ -3725,136 +3768,136 @@
         <v>41</v>
       </c>
       <c r="D90" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" t="s">
+        <v>324</v>
+      </c>
+      <c r="G90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
         <v>326</v>
       </c>
-      <c r="E90" t="s">
-        <v>354</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="B91" t="s">
         <v>327</v>
       </c>
-      <c r="G90" t="s">
+      <c r="C91" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
+      <c r="D91" t="s">
         <v>329</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
         <v>330</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" t="s">
         <v>331</v>
       </c>
-      <c r="D91" t="s">
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
         <v>332</v>
       </c>
-      <c r="E91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B92" t="s">
         <v>333</v>
       </c>
-      <c r="G91" t="s">
+      <c r="C92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
+      <c r="G92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
         <v>335</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>336</v>
       </c>
-      <c r="C92" t="s">
-        <v>331</v>
-      </c>
-      <c r="D92" t="s">
-        <v>332</v>
-      </c>
-      <c r="E92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C93" t="s">
+        <v>328</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
         <v>337</v>
       </c>
-      <c r="G92" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
+      <c r="G93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" t="s">
         <v>338</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" t="s">
         <v>339</v>
       </c>
-      <c r="C93" t="s">
-        <v>331</v>
-      </c>
-      <c r="D93" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" t="s">
-        <v>37</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
         <v>340</v>
       </c>
-      <c r="G93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>338</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="G94" t="s">
         <v>341</v>
       </c>
-      <c r="C94" t="s">
-        <v>331</v>
-      </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
         <v>342</v>
       </c>
-      <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="B95" t="s">
         <v>343</v>
       </c>
-      <c r="G94" t="s">
+      <c r="C95" t="s">
+        <v>328</v>
+      </c>
+      <c r="D95" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s">
         <v>345</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G95" t="s">
         <v>346</v>
       </c>
-      <c r="C95" t="s">
-        <v>331</v>
-      </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
         <v>347</v>
-      </c>
-      <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>350</v>
       </c>
       <c r="B96" t="s">
         <v>40</v>
@@ -3863,21 +3906,21 @@
         <v>41</v>
       </c>
       <c r="D96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" t="s">
         <v>351</v>
       </c>
-      <c r="E96" t="s">
-        <v>354</v>
-      </c>
       <c r="F96" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
         <v>352</v>
-      </c>
-      <c r="G96" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>355</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -3886,21 +3929,21 @@
         <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F97" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -3909,16 +3952,16 @@
         <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -4077,16 +4120,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="405">
   <si>
     <t>S No</t>
   </si>
@@ -1091,6 +1091,147 @@
   </si>
   <si>
     <t>jhhfjyf</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 17:41</t>
+  </si>
+  <si>
+    <t>GuestCust 15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>NewStock_Img(1)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 17:48</t>
+  </si>
+  <si>
+    <t>GuestCust 16</t>
+  </si>
+  <si>
+    <t>XX0812109</t>
+  </si>
+  <si>
+    <t>GuestCust 17</t>
+  </si>
+  <si>
+    <t>XX0812110</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 17:49</t>
+  </si>
+  <si>
+    <t>XX0812111</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:13</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>XX0812112</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:14</t>
+  </si>
+  <si>
+    <t>XX0812113</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:16</t>
+  </si>
+  <si>
+    <t>XX0812114</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:19</t>
+  </si>
+  <si>
+    <t>XX0812115</t>
+  </si>
+  <si>
+    <t>NewStock_Img(2)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:20</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:22</t>
+  </si>
+  <si>
+    <t>XX0812116</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:23</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Stock Name two(1),Bill Clearance 08Dec2020(1)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:29</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>XX0812117</t>
+  </si>
+  <si>
+    <t>Boost Half Kg(10)</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Boost Half Kg(10),Bill Clearance 08Dec2020(1)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:30</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>XX0812118</t>
+  </si>
+  <si>
+    <t>Boost Half Kg(20)</t>
+  </si>
+  <si>
+    <t>GuestCust 18</t>
+  </si>
+  <si>
+    <t>XX0812119</t>
+  </si>
+  <si>
+    <t>NewStock_Img(20)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:31</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>XX0812120</t>
+  </si>
+  <si>
+    <t>Stock Name One(10)</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>Stock Name One(10),Bill Clearance 08Dec2020(1)</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1755,8 @@
       <c r="C2" s="3">
         <v>155</v>
       </c>
-      <c r="D2">
-        <v>199</v>
+      <c r="D2" t="n">
+        <v>185.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>163</v>
@@ -1637,8 +1778,8 @@
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3">
-        <v>451</v>
+      <c r="D3" t="n">
+        <v>449.0</v>
       </c>
       <c r="F3" t="s">
         <v>170</v>
@@ -1657,8 +1798,8 @@
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>170</v>
+      <c r="D4" t="n">
+        <v>146.0</v>
       </c>
       <c r="F4" t="s">
         <v>355</v>
@@ -1677,8 +1818,8 @@
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5">
-        <v>180</v>
+      <c r="D5" t="n">
+        <v>150.0</v>
       </c>
       <c r="F5" t="s">
         <v>357</v>
@@ -1839,7 +1980,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -1862,7 +2003,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -1885,7 +2026,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -1931,7 +2072,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -1954,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -1977,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
@@ -2046,7 +2187,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
@@ -2092,7 +2233,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="F17" t="s">
         <v>102</v>
@@ -2115,7 +2256,7 @@
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
         <v>109</v>
@@ -2138,7 +2279,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
         <v>111</v>
@@ -2161,7 +2302,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>351</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2184,7 +2325,7 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
         <v>115</v>
@@ -2207,7 +2348,7 @@
         <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
         <v>118</v>
@@ -2230,7 +2371,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
         <v>121</v>
@@ -2299,7 +2440,7 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="F26" t="s">
         <v>132</v>
@@ -2483,7 +2624,7 @@
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F34" t="s">
         <v>149</v>
@@ -2529,7 +2670,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F36" t="s">
         <v>155</v>
@@ -2552,7 +2693,7 @@
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
         <v>159</v>
@@ -2621,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F40" t="s">
         <v>175</v>
@@ -2667,7 +2808,7 @@
         <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F42" t="s">
         <v>181</v>
@@ -2690,7 +2831,7 @@
         <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F43" t="s">
         <v>185</v>
@@ -2713,7 +2854,7 @@
         <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F44" t="s">
         <v>188</v>
@@ -2736,7 +2877,7 @@
         <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F45" t="s">
         <v>192</v>
@@ -2805,7 +2946,7 @@
         <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F48" t="s">
         <v>203</v>
@@ -2897,7 +3038,7 @@
         <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F52" t="s">
         <v>214</v>
@@ -2943,7 +3084,7 @@
         <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F54" t="s">
         <v>218</v>
@@ -2966,7 +3107,7 @@
         <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F55" t="s">
         <v>220</v>
@@ -3012,7 +3153,7 @@
         <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F57" t="s">
         <v>225</v>
@@ -3058,7 +3199,7 @@
         <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
         <v>229</v>
@@ -3104,7 +3245,7 @@
         <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
@@ -3127,7 +3268,7 @@
         <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
         <v>238</v>
@@ -3196,7 +3337,7 @@
         <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
         <v>245</v>
@@ -3219,7 +3360,7 @@
         <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F66" t="s">
         <v>247</v>
@@ -3288,7 +3429,7 @@
         <v>233</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F69" t="s">
         <v>255</v>
@@ -3311,7 +3452,7 @@
         <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
         <v>257</v>
@@ -3334,7 +3475,7 @@
         <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F71" t="s">
         <v>259</v>
@@ -3357,7 +3498,7 @@
         <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F72" t="s">
         <v>262</v>
@@ -3449,7 +3590,7 @@
         <v>237</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F76" t="s">
         <v>277</v>
@@ -3472,7 +3613,7 @@
         <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F77" t="s">
         <v>279</v>
@@ -3541,7 +3682,7 @@
         <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
         <v>288</v>
@@ -3587,7 +3728,7 @@
         <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F82" t="s">
         <v>292</v>
@@ -3633,7 +3774,7 @@
         <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F84" t="s">
         <v>299</v>
@@ -3702,7 +3843,7 @@
         <v>310</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="F87" t="s">
         <v>311</v>
@@ -3962,6 +4103,420 @@
       </c>
       <c r="G98" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+      <c r="C99" t="s">
+        <v>328</v>
+      </c>
+      <c r="D99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
+        <v>349</v>
+      </c>
+      <c r="G99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>362</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>328</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
+        <v>364</v>
+      </c>
+      <c r="G100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
+        <v>366</v>
+      </c>
+      <c r="G101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>360</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>368</v>
+      </c>
+      <c r="G102" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" t="s">
+        <v>351</v>
+      </c>
+      <c r="F103" t="s">
+        <v>371</v>
+      </c>
+      <c r="G103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>372</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104" t="s">
+        <v>373</v>
+      </c>
+      <c r="G104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" t="s">
+        <v>351</v>
+      </c>
+      <c r="F105" t="s">
+        <v>375</v>
+      </c>
+      <c r="G105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>376</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" t="s">
+        <v>351</v>
+      </c>
+      <c r="F106" t="s">
+        <v>377</v>
+      </c>
+      <c r="G106" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" t="s">
+        <v>377</v>
+      </c>
+      <c r="G107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>379</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" t="s">
+        <v>351</v>
+      </c>
+      <c r="F109" t="s">
+        <v>381</v>
+      </c>
+      <c r="G109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" t="s">
+        <v>351</v>
+      </c>
+      <c r="F110" t="s">
+        <v>381</v>
+      </c>
+      <c r="G110" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>385</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" t="s">
+        <v>351</v>
+      </c>
+      <c r="F111" t="s">
+        <v>387</v>
+      </c>
+      <c r="G111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>385</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" t="s">
+        <v>389</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" t="s">
+        <v>387</v>
+      </c>
+      <c r="G112" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" t="s">
+        <v>351</v>
+      </c>
+      <c r="F113" t="s">
+        <v>394</v>
+      </c>
+      <c r="G113" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114" t="s">
+        <v>328</v>
+      </c>
+      <c r="D114" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
+        <v>397</v>
+      </c>
+      <c r="G114" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>399</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" t="s">
+        <v>401</v>
+      </c>
+      <c r="G115" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>399</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" t="s">
+        <v>403</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>401</v>
+      </c>
+      <c r="G116" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="429">
   <si>
     <t>S No</t>
   </si>
@@ -73,9 +73,6 @@
     <t>500.0</t>
   </si>
   <si>
-    <t>350.0</t>
-  </si>
-  <si>
     <t>RE31102</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>252200.0</t>
   </si>
   <si>
-    <t>152200.0</t>
-  </si>
-  <si>
     <t>AL01110</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>3762.0</t>
   </si>
   <si>
-    <t>3612.0</t>
-  </si>
-  <si>
     <t>CO12112</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>24-Sep-2020 11:07</t>
   </si>
   <si>
-    <t>250.0</t>
-  </si>
-  <si>
     <t>CO24098</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>1200.0</t>
   </si>
   <si>
-    <t>1120.0</t>
-  </si>
-  <si>
     <t>CO240910</t>
   </si>
   <si>
@@ -343,9 +328,6 @@
     <t>28-Sep-2020 11:25</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>CO280913</t>
   </si>
   <si>
@@ -1129,9 +1111,6 @@
     <t>08-Dec-2020 18:13</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
     <t>XX0812112</t>
   </si>
   <si>
@@ -1198,9 +1177,6 @@
     <t>4000</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
     <t>XX0812118</t>
   </si>
   <si>
@@ -1232,6 +1208,102 @@
   </si>
   <si>
     <t>Stock Name One(10),Bill Clearance 08Dec2020(1)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:47</t>
+  </si>
+  <si>
+    <t>XX0812121</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:48</t>
+  </si>
+  <si>
+    <t>XX0812122</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:51</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 18:53</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>XX0812123</t>
+  </si>
+  <si>
+    <t>NewStock_Img(3)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:00</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>XX0812124</t>
+  </si>
+  <si>
+    <t>Stock Name One(3)</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>XX0812125</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:02</t>
+  </si>
+  <si>
+    <t>Stock Name two(4)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:05</t>
+  </si>
+  <si>
+    <t>XX0812126</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:07</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>Stock Name One(2),Bill Clearance 08Dec2020(1)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:08</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>725.0</t>
+  </si>
+  <si>
+    <t>XX0812127</t>
+  </si>
+  <si>
+    <t>Stock Name One(5)</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:09</t>
+  </si>
+  <si>
+    <t>XX0812128</t>
+  </si>
+  <si>
+    <t>08-Dec-2020 19:20</t>
+  </si>
+  <si>
+    <t>1035</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1371,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1321,7 +1393,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,7 +1431,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1376,7 +1448,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1391,13 +1463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1704,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1714,7 +1786,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="61.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="54.6875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="13.42578125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
@@ -1727,22 +1799,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69.95" customHeight="1">
@@ -1750,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3">
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>185.0</v>
+        <v>171.0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -1773,36 +1845,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>449.0</v>
+        <v>445.0</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="70.0" customHeight="true">
+    <row r="4" spans="1:8" ht="69.95" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
-        <v>146.0</v>
+      <c r="D4">
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1813,16 +1885,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" t="n">
-        <v>150.0</v>
+      <c r="D5">
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1837,11 +1909,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,2635 +1960,2911 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E56" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G63" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E65" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G69" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G73" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E76" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F76" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F77" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
+        <v>345</v>
+      </c>
+      <c r="F79" t="s">
+        <v>279</v>
+      </c>
+      <c r="G79" t="s">
         <v>280</v>
-      </c>
-      <c r="B79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" t="s">
-        <v>351</v>
-      </c>
-      <c r="F79" t="s">
-        <v>285</v>
-      </c>
-      <c r="G79" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F80" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G82" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G83" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G84" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E85" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G85" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G86" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F87" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G87" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E88" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F88" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G89" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G90" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G91" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92" t="s">
+        <v>323</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
         <v>328</v>
       </c>
-      <c r="D92" t="s">
-        <v>329</v>
-      </c>
-      <c r="E92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>334</v>
-      </c>
       <c r="G92" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G93" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" t="s">
+        <v>322</v>
+      </c>
+      <c r="D94" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" t="s">
         <v>335</v>
-      </c>
-      <c r="B94" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" t="s">
-        <v>339</v>
-      </c>
-      <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" t="s">
-        <v>340</v>
-      </c>
-      <c r="G94" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B95" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G95" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E96" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G96" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F97" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G97" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" t="s">
+        <v>345</v>
+      </c>
+      <c r="F98" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" t="s">
         <v>353</v>
       </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" t="s">
-        <v>351</v>
-      </c>
-      <c r="F98" t="s">
-        <v>349</v>
-      </c>
-      <c r="G98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" t="s">
+        <v>343</v>
+      </c>
+      <c r="G99" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>356</v>
+      </c>
+      <c r="B100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" t="s">
         <v>358</v>
       </c>
-      <c r="B99" t="s">
+      <c r="G100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" t="s">
         <v>359</v>
       </c>
-      <c r="C99" t="s">
-        <v>328</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C101" t="s">
+        <v>322</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" t="s">
         <v>360</v>
       </c>
-      <c r="E99" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" t="s">
-        <v>349</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="G101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" t="s">
         <v>362</v>
       </c>
-      <c r="B100" t="s">
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
         <v>363</v>
       </c>
-      <c r="C100" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100" t="s">
-        <v>209</v>
-      </c>
-      <c r="E100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" t="s">
         <v>364</v>
       </c>
-      <c r="G100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>362</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="G103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
         <v>365</v>
       </c>
-      <c r="C101" t="s">
-        <v>328</v>
-      </c>
-      <c r="D101" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" t="s">
+        <v>345</v>
+      </c>
+      <c r="F104" t="s">
         <v>366</v>
       </c>
-      <c r="G101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
+      <c r="G104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
         <v>367</v>
       </c>
-      <c r="B102" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" t="s">
-        <v>41</v>
-      </c>
-      <c r="D102" t="s">
-        <v>360</v>
-      </c>
-      <c r="E102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" t="s">
         <v>368</v>
       </c>
-      <c r="G102" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
+      <c r="G105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
         <v>369</v>
       </c>
-      <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" t="s">
-        <v>209</v>
-      </c>
-      <c r="E103" t="s">
-        <v>351</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" t="s">
+        <v>345</v>
+      </c>
+      <c r="F106" t="s">
+        <v>370</v>
+      </c>
+      <c r="G106" t="s">
         <v>371</v>
       </c>
-      <c r="G103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" t="s">
+        <v>345</v>
+      </c>
+      <c r="F107" t="s">
+        <v>370</v>
+      </c>
+      <c r="G107" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
         <v>372</v>
       </c>
-      <c r="B104" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" t="s">
-        <v>104</v>
-      </c>
-      <c r="D104" t="s">
-        <v>209</v>
-      </c>
-      <c r="E104" t="s">
-        <v>351</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" t="s">
+        <v>345</v>
+      </c>
+      <c r="F108" t="s">
+        <v>370</v>
+      </c>
+      <c r="G108" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
         <v>373</v>
       </c>
-      <c r="G104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" t="s">
         <v>374</v>
       </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" t="s">
-        <v>209</v>
-      </c>
-      <c r="E105" t="s">
-        <v>351</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="G109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
         <v>375</v>
       </c>
-      <c r="G105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" t="s">
         <v>376</v>
       </c>
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106" t="s">
-        <v>351</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E110" t="s">
+        <v>345</v>
+      </c>
+      <c r="F110" t="s">
+        <v>374</v>
+      </c>
+      <c r="G110" t="s">
         <v>377</v>
       </c>
-      <c r="G106" t="s">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>376</v>
-      </c>
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" t="s">
-        <v>351</v>
-      </c>
-      <c r="F107" t="s">
-        <v>377</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="B111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>379</v>
+      </c>
+      <c r="E111" t="s">
+        <v>345</v>
+      </c>
+      <c r="F111" t="s">
+        <v>380</v>
+      </c>
+      <c r="G111" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>379</v>
-      </c>
-      <c r="B108" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" t="s">
-        <v>351</v>
-      </c>
-      <c r="F108" t="s">
-        <v>377</v>
-      </c>
-      <c r="G108" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" t="s">
+        <v>382</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" t="s">
         <v>380</v>
       </c>
-      <c r="B109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" t="s">
-        <v>351</v>
-      </c>
-      <c r="F109" t="s">
-        <v>381</v>
-      </c>
-      <c r="G109" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>382</v>
-      </c>
-      <c r="B110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="G112" t="s">
         <v>383</v>
       </c>
-      <c r="E110" t="s">
-        <v>351</v>
-      </c>
-      <c r="F110" t="s">
-        <v>381</v>
-      </c>
-      <c r="G110" t="s">
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" t="s">
         <v>385</v>
       </c>
-      <c r="B111" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E113" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" t="s">
         <v>386</v>
       </c>
-      <c r="E111" t="s">
-        <v>351</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="G113" t="s">
         <v>387</v>
       </c>
-      <c r="G111" t="s">
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>384</v>
+      </c>
+      <c r="B114" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>385</v>
-      </c>
-      <c r="B112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C114" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>389</v>
       </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>387</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="G114" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s">
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
         <v>391</v>
       </c>
-      <c r="B113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" t="s">
         <v>392</v>
       </c>
-      <c r="E113" t="s">
-        <v>351</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E115" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115" t="s">
+        <v>393</v>
+      </c>
+      <c r="G115" t="s">
         <v>394</v>
       </c>
-      <c r="G113" t="s">
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>391</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="E116" t="s">
+        <v>345</v>
+      </c>
+      <c r="F116" t="s">
+        <v>393</v>
+      </c>
+      <c r="G116" t="s">
         <v>396</v>
       </c>
-      <c r="C114" t="s">
-        <v>328</v>
-      </c>
-      <c r="D114" t="s">
-        <v>205</v>
-      </c>
-      <c r="E114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" t="s">
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
         <v>397</v>
       </c>
-      <c r="G114" t="s">
+      <c r="B117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" t="s">
+        <v>354</v>
+      </c>
+      <c r="E117" t="s">
+        <v>345</v>
+      </c>
+      <c r="F117" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
+      <c r="G117" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
         <v>399</v>
       </c>
-      <c r="B115" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="B118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" t="s">
+        <v>203</v>
+      </c>
+      <c r="E118" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" t="s">
         <v>400</v>
       </c>
-      <c r="E115" t="s">
-        <v>351</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
         <v>401</v>
       </c>
-      <c r="G115" t="s">
+      <c r="B119" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" t="s">
+        <v>400</v>
+      </c>
+      <c r="G119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>399</v>
-      </c>
-      <c r="B116" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="B120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" t="s">
         <v>403</v>
       </c>
-      <c r="E116" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" t="s">
-        <v>401</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="E120" t="s">
+        <v>345</v>
+      </c>
+      <c r="F120" t="s">
         <v>404</v>
+      </c>
+      <c r="G120" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>406</v>
+      </c>
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" t="s">
+        <v>407</v>
+      </c>
+      <c r="E121" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" t="s">
+        <v>409</v>
+      </c>
+      <c r="G121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" t="s">
+        <v>203</v>
+      </c>
+      <c r="E122" t="s">
+        <v>345</v>
+      </c>
+      <c r="F122" t="s">
+        <v>412</v>
+      </c>
+      <c r="G122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>413</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
+        <v>345</v>
+      </c>
+      <c r="F123" t="s">
+        <v>412</v>
+      </c>
+      <c r="G123" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>415</v>
+      </c>
+      <c r="B124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" t="s">
+        <v>323</v>
+      </c>
+      <c r="E124" t="s">
+        <v>345</v>
+      </c>
+      <c r="F124" t="s">
+        <v>416</v>
+      </c>
+      <c r="G124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>417</v>
+      </c>
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" t="s">
+        <v>345</v>
+      </c>
+      <c r="F125" t="s">
+        <v>416</v>
+      </c>
+      <c r="G125" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>420</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" t="s">
+        <v>421</v>
+      </c>
+      <c r="E126" t="s">
+        <v>345</v>
+      </c>
+      <c r="F126" t="s">
+        <v>423</v>
+      </c>
+      <c r="G126" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>425</v>
+      </c>
+      <c r="B127" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" t="s">
+        <v>345</v>
+      </c>
+      <c r="F127" t="s">
+        <v>426</v>
+      </c>
+      <c r="G127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>427</v>
+      </c>
+      <c r="B128" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D128" t="s">
+        <v>428</v>
+      </c>
+      <c r="E128" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" t="s">
+        <v>426</v>
+      </c>
+      <c r="G128" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4562,100 +4910,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4675,16 +5023,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="487">
   <si>
     <t>S No</t>
   </si>
@@ -1304,6 +1304,180 @@
   </si>
   <si>
     <t>1035</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 13:08</t>
+  </si>
+  <si>
+    <t>GuestCust 19</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>XX0912129</t>
+  </si>
+  <si>
+    <t>NewStock_Img(4)</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:14</t>
+  </si>
+  <si>
+    <t>GuestCust 20</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>XX0912130</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:30</t>
+  </si>
+  <si>
+    <t>GuestCust 21</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>XX0912131</t>
+  </si>
+  <si>
+    <t>GuestCust 22</t>
+  </si>
+  <si>
+    <t>XX0912132</t>
+  </si>
+  <si>
+    <t>Boost Half Kg(1)</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:33</t>
+  </si>
+  <si>
+    <t>GuestCust 23</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>XX0912133</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:37</t>
+  </si>
+  <si>
+    <t>GuestCust 24</t>
+  </si>
+  <si>
+    <t>XX0912134</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:39</t>
+  </si>
+  <si>
+    <t>GuestCust 25</t>
+  </si>
+  <si>
+    <t>XX0912135</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:42</t>
+  </si>
+  <si>
+    <t>GuestCust 26</t>
+  </si>
+  <si>
+    <t>XX0912136</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:43</t>
+  </si>
+  <si>
+    <t>GuestCust 27</t>
+  </si>
+  <si>
+    <t>XX0912137</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:48</t>
+  </si>
+  <si>
+    <t>GuestCust 28</t>
+  </si>
+  <si>
+    <t>XX0912138</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:50</t>
+  </si>
+  <si>
+    <t>GuestCust 29</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>XX0912139</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:51</t>
+  </si>
+  <si>
+    <t>GuestCust 30</t>
+  </si>
+  <si>
+    <t>XX0912140</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:53</t>
+  </si>
+  <si>
+    <t>GuestCust 31</t>
+  </si>
+  <si>
+    <t>XX0912141</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 20:57</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>XX0912142</t>
+  </si>
+  <si>
+    <t>Stock Name two(2)</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 21:01</t>
+  </si>
+  <si>
+    <t>XX0912143</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 21:02</t>
+  </si>
+  <si>
+    <t>505.0</t>
+  </si>
+  <si>
+    <t>XX0912144</t>
+  </si>
+  <si>
+    <t>Stock Name One(1),Stock Name two(2)</t>
+  </si>
+  <si>
+    <t>09-Dec-2020 21:08</t>
+  </si>
+  <si>
+    <t>GuestCust 32</t>
+  </si>
+  <si>
+    <t>XX0912145</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +2002,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>171.0</v>
+        <v>166.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>157</v>
@@ -1851,7 +2025,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>445.0</v>
+        <v>435.0</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -1870,8 +2044,8 @@
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>142</v>
+      <c r="D4" t="n">
+        <v>132.0</v>
       </c>
       <c r="F4" t="s">
         <v>349</v>
@@ -1890,8 +2064,8 @@
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5">
-        <v>150</v>
+      <c r="D5" t="n">
+        <v>149.0</v>
       </c>
       <c r="F5" t="s">
         <v>351</v>
@@ -4865,6 +5039,397 @@
       </c>
       <c r="G128" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>429</v>
+      </c>
+      <c r="B129" t="s">
+        <v>430</v>
+      </c>
+      <c r="C129" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" t="s">
+        <v>431</v>
+      </c>
+      <c r="E129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" t="s">
+        <v>432</v>
+      </c>
+      <c r="G129" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" t="s">
+        <v>435</v>
+      </c>
+      <c r="C130" t="s">
+        <v>322</v>
+      </c>
+      <c r="D130" t="s">
+        <v>436</v>
+      </c>
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" t="s">
+        <v>437</v>
+      </c>
+      <c r="G130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>438</v>
+      </c>
+      <c r="B131" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" t="s">
+        <v>440</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>441</v>
+      </c>
+      <c r="G131" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>438</v>
+      </c>
+      <c r="B132" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" t="s">
+        <v>443</v>
+      </c>
+      <c r="G132" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>445</v>
+      </c>
+      <c r="B133" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" t="s">
+        <v>322</v>
+      </c>
+      <c r="D133" t="s">
+        <v>447</v>
+      </c>
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" t="s">
+        <v>448</v>
+      </c>
+      <c r="G133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>449</v>
+      </c>
+      <c r="B134" t="s">
+        <v>450</v>
+      </c>
+      <c r="C134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" t="s">
+        <v>451</v>
+      </c>
+      <c r="G134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>452</v>
+      </c>
+      <c r="B135" t="s">
+        <v>453</v>
+      </c>
+      <c r="C135" t="s">
+        <v>322</v>
+      </c>
+      <c r="D135" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" t="s">
+        <v>454</v>
+      </c>
+      <c r="G135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>455</v>
+      </c>
+      <c r="B136" t="s">
+        <v>456</v>
+      </c>
+      <c r="C136" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" t="s">
+        <v>447</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" t="s">
+        <v>457</v>
+      </c>
+      <c r="G136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>458</v>
+      </c>
+      <c r="B137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137" t="s">
+        <v>322</v>
+      </c>
+      <c r="D137" t="s">
+        <v>447</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" t="s">
+        <v>460</v>
+      </c>
+      <c r="G137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>461</v>
+      </c>
+      <c r="B138" t="s">
+        <v>462</v>
+      </c>
+      <c r="C138" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138" t="s">
+        <v>447</v>
+      </c>
+      <c r="E138" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138" t="s">
+        <v>463</v>
+      </c>
+      <c r="G138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>464</v>
+      </c>
+      <c r="B139" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139" t="s">
+        <v>466</v>
+      </c>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
+        <v>467</v>
+      </c>
+      <c r="G139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>468</v>
+      </c>
+      <c r="B140" t="s">
+        <v>469</v>
+      </c>
+      <c r="C140" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" t="s">
+        <v>78</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>471</v>
+      </c>
+      <c r="B141" t="s">
+        <v>472</v>
+      </c>
+      <c r="C141" t="s">
+        <v>322</v>
+      </c>
+      <c r="D141" t="s">
+        <v>447</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" t="s">
+        <v>473</v>
+      </c>
+      <c r="G141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>474</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>475</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" t="s">
+        <v>476</v>
+      </c>
+      <c r="G142" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>478</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>431</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" t="s">
+        <v>479</v>
+      </c>
+      <c r="G143" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>480</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" t="s">
+        <v>481</v>
+      </c>
+      <c r="E144" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" t="s">
+        <v>482</v>
+      </c>
+      <c r="G144" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" t="s">
+        <v>485</v>
+      </c>
+      <c r="C145" t="s">
+        <v>322</v>
+      </c>
+      <c r="D145" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" t="s">
+        <v>486</v>
+      </c>
+      <c r="G145" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="495">
   <si>
     <t>S No</t>
   </si>
@@ -1478,6 +1478,30 @@
   </si>
   <si>
     <t>XX0912145</t>
+  </si>
+  <si>
+    <t>10-Dec-2020 13:38</t>
+  </si>
+  <si>
+    <t>455.0</t>
+  </si>
+  <si>
+    <t>XX1012146</t>
+  </si>
+  <si>
+    <t>Stock Name two(5)</t>
+  </si>
+  <si>
+    <t>10-Dec-2020 13:44</t>
+  </si>
+  <si>
+    <t>XX1012147</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>Stock Name two(5),Bill Clearance 10Dec2020(1)</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2049,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>435.0</v>
+        <v>425.0</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -5032,7 +5056,7 @@
         <v>428</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F128" t="s">
         <v>426</v>
@@ -5430,6 +5454,75 @@
       </c>
       <c r="G145" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D146" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" t="s">
+        <v>345</v>
+      </c>
+      <c r="F146" t="s">
+        <v>489</v>
+      </c>
+      <c r="G146" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" t="s">
+        <v>99</v>
+      </c>
+      <c r="D147" t="s">
+        <v>111</v>
+      </c>
+      <c r="E147" t="s">
+        <v>345</v>
+      </c>
+      <c r="F147" t="s">
+        <v>492</v>
+      </c>
+      <c r="G147" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" t="s">
+        <v>493</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" t="s">
+        <v>492</v>
+      </c>
+      <c r="G148" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="499">
   <si>
     <t>S No</t>
   </si>
@@ -1502,6 +1502,18 @@
   </si>
   <si>
     <t>Stock Name two(5),Bill Clearance 10Dec2020(1)</t>
+  </si>
+  <si>
+    <t>Newss Sss</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>New Liz</t>
+  </si>
+  <si>
+    <t>654</t>
   </si>
 </sst>
 </file>
@@ -2098,6 +2110,46 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="521">
   <si>
     <t>S No</t>
   </si>
@@ -1514,6 +1514,72 @@
   </si>
   <si>
     <t>654</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 09:58</t>
+  </si>
+  <si>
+    <t>675.0</t>
+  </si>
+  <si>
+    <t>XX1512148</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>XX1512149</t>
+  </si>
+  <si>
+    <t>New Liz(1)</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>New Liz(1),Bill Clearance 15Dec2020(1)</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 10:06</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>4450.0</t>
+  </si>
+  <si>
+    <t>XX1512150</t>
+  </si>
+  <si>
+    <t>Stock Name two(23)</t>
+  </si>
+  <si>
+    <t>XX1512151</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 10:10</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>3310.0</t>
+  </si>
+  <si>
+    <t>Stock Name One(22)</t>
+  </si>
+  <si>
+    <t>XX1512152</t>
+  </si>
+  <si>
+    <t>Newss Sss(1)</t>
+  </si>
+  <si>
+    <t>3460</t>
+  </si>
+  <si>
+    <t>Newss Sss(1),Bill Clearance 15Dec2020(1)</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2104,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0</v>
+        <v>139.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>157</v>
@@ -2061,7 +2127,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>425.0</v>
+        <v>402.0</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -2121,7 +2187,7 @@
         <v>150.0</v>
       </c>
       <c r="D6" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="F6" t="s">
         <v>496</v>
@@ -2141,7 +2207,7 @@
         <v>15.0</v>
       </c>
       <c r="D7" t="n">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="F7" t="s">
         <v>498</v>
@@ -5476,7 +5542,7 @@
         <v>481</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F144" t="s">
         <v>482</v>
@@ -5568,13 +5634,197 @@
         <v>493</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F148" t="s">
         <v>492</v>
       </c>
       <c r="G148" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>499</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
+        <v>421</v>
+      </c>
+      <c r="E149" t="s">
+        <v>345</v>
+      </c>
+      <c r="F149" t="s">
+        <v>501</v>
+      </c>
+      <c r="G149" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>499</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" t="s">
+        <v>502</v>
+      </c>
+      <c r="E150" t="s">
+        <v>345</v>
+      </c>
+      <c r="F150" t="s">
+        <v>503</v>
+      </c>
+      <c r="G150" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>499</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
+        <v>505</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" t="s">
+        <v>503</v>
+      </c>
+      <c r="G151" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>507</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" t="s">
+        <v>508</v>
+      </c>
+      <c r="E152" t="s">
+        <v>345</v>
+      </c>
+      <c r="F152" t="s">
+        <v>510</v>
+      </c>
+      <c r="G152" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>507</v>
+      </c>
+      <c r="B153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" t="s">
+        <v>354</v>
+      </c>
+      <c r="E153" t="s">
+        <v>345</v>
+      </c>
+      <c r="F153" t="s">
+        <v>512</v>
+      </c>
+      <c r="G153" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>513</v>
+      </c>
+      <c r="B154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" t="s">
+        <v>514</v>
+      </c>
+      <c r="E154" t="s">
+        <v>345</v>
+      </c>
+      <c r="F154" t="s">
+        <v>512</v>
+      </c>
+      <c r="G154" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>513</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" t="s">
+        <v>99</v>
+      </c>
+      <c r="D155" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" t="s">
+        <v>345</v>
+      </c>
+      <c r="F155" t="s">
+        <v>517</v>
+      </c>
+      <c r="G155" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>513</v>
+      </c>
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" t="s">
+        <v>519</v>
+      </c>
+      <c r="E156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="s">
+        <v>517</v>
+      </c>
+      <c r="G156" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="539">
   <si>
     <t>S No</t>
   </si>
@@ -1580,6 +1580,60 @@
   </si>
   <si>
     <t>Newss Sss(1),Bill Clearance 15Dec2020(1)</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 10:37</t>
+  </si>
+  <si>
+    <t>1410.0</t>
+  </si>
+  <si>
+    <t>XX1512153</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 10:38</t>
+  </si>
+  <si>
+    <t>XX1512154</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 17:06</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>XX1512155</t>
+  </si>
+  <si>
+    <t>NewStock_Img(11)</t>
+  </si>
+  <si>
+    <t>XX1512156</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 17:07</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>325.0</t>
+  </si>
+  <si>
+    <t>Boost Half Kg(1),Bill Clearance 15Dec2020(1)</t>
+  </si>
+  <si>
+    <t>15-Dec-2020 17:12</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>XX1512157</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2158,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>139.0</v>
+        <v>117.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>157</v>
@@ -2147,7 +2201,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>132.0</v>
+        <v>121.0</v>
       </c>
       <c r="F4" t="s">
         <v>349</v>
@@ -2167,7 +2221,7 @@
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="F5" t="s">
         <v>351</v>
@@ -2207,7 +2261,7 @@
         <v>15.0</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0</v>
+        <v>197.0</v>
       </c>
       <c r="F7" t="s">
         <v>498</v>
@@ -4806,7 +4860,7 @@
         <v>382</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F112" t="s">
         <v>380</v>
@@ -5818,13 +5872,174 @@
         <v>519</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F156" t="s">
         <v>517</v>
       </c>
       <c r="G156" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>521</v>
+      </c>
+      <c r="B157" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" t="s">
+        <v>514</v>
+      </c>
+      <c r="E157" t="s">
+        <v>345</v>
+      </c>
+      <c r="F157" t="s">
+        <v>523</v>
+      </c>
+      <c r="G157" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>524</v>
+      </c>
+      <c r="B158" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" t="s">
+        <v>502</v>
+      </c>
+      <c r="E158" t="s">
+        <v>345</v>
+      </c>
+      <c r="F158" t="s">
+        <v>525</v>
+      </c>
+      <c r="G158" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>524</v>
+      </c>
+      <c r="B159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>526</v>
+      </c>
+      <c r="E159" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" t="s">
+        <v>525</v>
+      </c>
+      <c r="G159" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>527</v>
+      </c>
+      <c r="B160" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" t="s">
+        <v>345</v>
+      </c>
+      <c r="F160" t="s">
+        <v>529</v>
+      </c>
+      <c r="G160" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>527</v>
+      </c>
+      <c r="B161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" t="s">
+        <v>99</v>
+      </c>
+      <c r="D161" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" t="s">
+        <v>345</v>
+      </c>
+      <c r="F161" t="s">
+        <v>531</v>
+      </c>
+      <c r="G161" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>532</v>
+      </c>
+      <c r="B162" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" t="s">
+        <v>99</v>
+      </c>
+      <c r="D162" t="s">
+        <v>533</v>
+      </c>
+      <c r="E162" t="s">
+        <v>345</v>
+      </c>
+      <c r="F162" t="s">
+        <v>531</v>
+      </c>
+      <c r="G162" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>536</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>99</v>
+      </c>
+      <c r="D163" t="s">
+        <v>537</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" t="s">
+        <v>538</v>
+      </c>
+      <c r="G163" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="548">
   <si>
     <t>S No</t>
   </si>
@@ -1634,6 +1634,33 @@
   </si>
   <si>
     <t>XX1512157</t>
+  </si>
+  <si>
+    <t>16-Dec-2020 19:25</t>
+  </si>
+  <si>
+    <t>GuestCust 33</t>
+  </si>
+  <si>
+    <t>XX1612158</t>
+  </si>
+  <si>
+    <t>16-Dec-2020 19:28</t>
+  </si>
+  <si>
+    <t>GuestCust 34</t>
+  </si>
+  <si>
+    <t>XX1612159</t>
+  </si>
+  <si>
+    <t>GuestCust 35</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>XX1612160</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2185,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>157</v>
@@ -2181,7 +2208,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>402.0</v>
+        <v>399.0</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -2241,7 +2268,7 @@
         <v>150.0</v>
       </c>
       <c r="D6" t="n">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="F6" t="s">
         <v>496</v>
@@ -6040,6 +6067,75 @@
       </c>
       <c r="G163" t="s">
         <v>506</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>539</v>
+      </c>
+      <c r="B164" t="s">
+        <v>540</v>
+      </c>
+      <c r="C164" t="s">
+        <v>322</v>
+      </c>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>541</v>
+      </c>
+      <c r="G164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>542</v>
+      </c>
+      <c r="B165" t="s">
+        <v>543</v>
+      </c>
+      <c r="C165" t="s">
+        <v>322</v>
+      </c>
+      <c r="D165" t="s">
+        <v>189</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" t="s">
+        <v>544</v>
+      </c>
+      <c r="G165" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>542</v>
+      </c>
+      <c r="B166" t="s">
+        <v>545</v>
+      </c>
+      <c r="C166" t="s">
+        <v>322</v>
+      </c>
+      <c r="D166" t="s">
+        <v>546</v>
+      </c>
+      <c r="E166" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="551">
   <si>
     <t>S No</t>
   </si>
@@ -1661,6 +1661,15 @@
   </si>
   <si>
     <t>XX1612160</t>
+  </si>
+  <si>
+    <t>17-Dec-2020 13:11</t>
+  </si>
+  <si>
+    <t>GuestCust 36</t>
+  </si>
+  <si>
+    <t>XX1712161</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2194,7 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>157</v>
@@ -6135,6 +6144,29 @@
         <v>547</v>
       </c>
       <c r="G166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>548</v>
+      </c>
+      <c r="B167" t="s">
+        <v>549</v>
+      </c>
+      <c r="C167" t="s">
+        <v>322</v>
+      </c>
+      <c r="D167" t="s">
+        <v>203</v>
+      </c>
+      <c r="E167" t="s">
+        <v>35</v>
+      </c>
+      <c r="F167" t="s">
+        <v>550</v>
+      </c>
+      <c r="G167" t="s">
         <v>162</v>
       </c>
     </row>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="561">
   <si>
     <t>S No</t>
   </si>
@@ -1670,6 +1670,36 @@
   </si>
   <si>
     <t>XX1712161</t>
+  </si>
+  <si>
+    <t>20-Dec-2020 12:12</t>
+  </si>
+  <si>
+    <t>575.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>XX2012162</t>
+  </si>
+  <si>
+    <t>NewStock_Img(1),Stock Name two(2),Boost Half Kg(1)</t>
+  </si>
+  <si>
+    <t>20-Dec-2020 12:13</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>XX2012163</t>
+  </si>
+  <si>
+    <t>Stock Name two(1),Bill Clearance 20Dec2020(1)</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2247,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>399.0</v>
+        <v>396.0</v>
       </c>
       <c r="F3" t="s">
         <v>164</v>
@@ -2237,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="F4" t="s">
         <v>349</v>
@@ -2257,7 +2287,7 @@
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="F5" t="s">
         <v>351</v>
@@ -4666,7 +4696,7 @@
         <v>354</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F102" t="s">
         <v>362</v>
@@ -5609,7 +5639,7 @@
         <v>431</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="F143" t="s">
         <v>479</v>
@@ -6168,6 +6198,52 @@
       </c>
       <c r="G167" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>551</v>
+      </c>
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" t="s">
+        <v>552</v>
+      </c>
+      <c r="E168" t="s">
+        <v>345</v>
+      </c>
+      <c r="F168" t="s">
+        <v>554</v>
+      </c>
+      <c r="G168" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>556</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>557</v>
+      </c>
+      <c r="E169" t="s">
+        <v>558</v>
+      </c>
+      <c r="F169" t="s">
+        <v>559</v>
+      </c>
+      <c r="G169" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
